--- a/Data/Processed/Angiosperms/missing_powo_ipni/Amaryllidaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Amaryllidaceae.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorn. Hort. Prat. ser. 2, 3: 242, t. 20. 1859 </t>
+          <t>Jorn. Hort. Prat. ser. 2, 3: 242, t. 20. 1859</t>
         </is>
       </c>
       <c r="J205" t="b">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 13: 118. 1914 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 13: 118. 1914</t>
         </is>
       </c>
       <c r="J206" t="b">
